--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1320217.125915859</v>
+        <v>1384167.590460327</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16614581.94299117</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083133</v>
+        <v>318032.2590466434</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6239568.550118316</v>
+        <v>6801029.080751615</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>66.12232352323805</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>421.5749147287468</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -826,13 +828,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -874,13 +876,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>159.9075995904312</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>209.3764036725657</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>54.8104716940174</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>100.9729494311656</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>429.4369973932878</v>
@@ -908,10 +910,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1069,7 +1071,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1111,10 +1113,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>254.0931201069078</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>168.1589972036696</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -1139,16 +1141,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>61.79827282811458</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1196,10 +1198,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1294,13 +1296,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>120.1472970361157</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1342,7 +1344,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>188.6279654955838</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1373,7 +1375,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1382,13 +1384,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>347.9615082703082</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>194.7139705438161</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1528,7 +1530,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>31.24391673888162</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1616,16 +1618,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>207.207734863493</v>
       </c>
       <c r="V14" t="n">
-        <v>190.1484012816663</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1673,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>155.2257542598717</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1777,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>94.21878984361696</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1856,7 +1858,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -2005,22 +2007,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704887</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>31.28831241118613</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2096,7 +2098,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2242,13 +2244,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>120.1472970361189</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
@@ -2257,7 +2259,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>243.4206519573255</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2302,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>107.8580766794782</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2488,10 +2490,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>140.2850596529192</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2725,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>73.01514676193455</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2965,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3013,7 +3015,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>122.4914619056497</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3193,7 +3195,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>77.84041448886909</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3202,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3436,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3487,10 +3489,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>122.4914619056497</v>
       </c>
       <c r="Y37" t="n">
-        <v>140.5116657259842</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791316623</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3670,7 +3672,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>52.00914065545613</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
@@ -3712,7 +3714,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3724,10 +3726,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>102.6974459740354</v>
       </c>
     </row>
     <row r="41">
@@ -3740,25 +3742,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>33.39301028534092</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3806,7 +3808,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>282.3555105740901</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3913,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>5.990622819018902</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3955,7 +3957,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>390.9609241290427</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>347.9615082703082</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4150,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>18.05677735225769</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>245.6558377980606</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1819.558022317326</v>
+        <v>1351.042333103999</v>
       </c>
       <c r="C2" t="n">
-        <v>1752.767796536277</v>
+        <v>1316.940264327826</v>
       </c>
       <c r="D2" t="n">
-        <v>1316.858011710722</v>
+        <v>888.3585900650944</v>
       </c>
       <c r="E2" t="n">
-        <v>883.0832668690169</v>
+        <v>459.7769158023627</v>
       </c>
       <c r="F2" t="n">
-        <v>455.2158372782247</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>53.81800590148855</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148855</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>488.6559039815464</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>1149.495958523325</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>1293.567921177998</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>1293.567921177998</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>1293.567921177998</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719776</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678371</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>2670.060826431428</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V2" t="n">
-        <v>2670.060826431428</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W2" t="n">
-        <v>2265.205371842461</v>
+        <v>1392.64927858873</v>
       </c>
       <c r="X2" t="n">
-        <v>1846.062908421772</v>
+        <v>1377.547219208445</v>
       </c>
       <c r="Y2" t="n">
-        <v>1841.81718876183</v>
+        <v>1373.301499548503</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1512.992809943912</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>1406.536348780554</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
-        <v>1311.446059927107</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.325645254061</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>1133.941806870223</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>1048.556717136407</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
-        <v>1006.821064952619</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>1006.821064952619</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>1331.379389918832</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>1992.21944446061</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>1992.21944446061</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M3" t="n">
-        <v>1992.21944446061</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N3" t="n">
-        <v>1992.21944446061</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O3" t="n">
-        <v>1992.21944446061</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P3" t="n">
-        <v>2012.149109705013</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="Q3" t="n">
-        <v>2552.888048337089</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S3" t="n">
-        <v>2606.605388879811</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T3" t="n">
-        <v>2476.426745210413</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U3" t="n">
-        <v>2300.090198210381</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V3" t="n">
-        <v>2100.97268027238</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W3" t="n">
-        <v>1915.649926005574</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X3" t="n">
-        <v>1760.782490244454</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y3" t="n">
-        <v>1634.296711023675</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1043.799427915185</v>
+        <v>542.1413766661235</v>
       </c>
       <c r="C4" t="n">
-        <v>871.2377163984103</v>
+        <v>369.5796651493484</v>
       </c>
       <c r="D4" t="n">
-        <v>705.359723599933</v>
+        <v>203.7016723508711</v>
       </c>
       <c r="E4" t="n">
-        <v>535.6017198506702</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>358.8946658124264</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>193.303390838254</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933184</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>414.739356264454</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324151</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M4" t="n">
-        <v>1292.433105213328</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>1146.964903885608</v>
       </c>
       <c r="O4" t="n">
-        <v>2154.361157596754</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
-        <v>2501.868051567096</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136787</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="W4" t="n">
-        <v>1516.610853267665</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="X4" t="n">
-        <v>1271.219098601077</v>
+        <v>961.3796660710025</v>
       </c>
       <c r="Y4" t="n">
-        <v>1043.799427915185</v>
+        <v>733.9599953851107</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1340.268492507381</v>
+        <v>2190.493479979994</v>
       </c>
       <c r="C5" t="n">
-        <v>1306.166423731208</v>
+        <v>1752.351007163417</v>
       </c>
       <c r="D5" t="n">
-        <v>1204.173545517909</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E5" t="n">
-        <v>770.3988006762045</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F5" t="n">
-        <v>342.5313710854123</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G5" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
         <v>53.40121652862856</v>
@@ -4565,19 +4567,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
@@ -4595,22 +4597,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2190.771296621483</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>2190.771296621483</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>2189.95624607292</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X5" t="n">
-        <v>1770.813782652231</v>
+        <v>2250.103312462176</v>
       </c>
       <c r="Y5" t="n">
-        <v>1362.527658951884</v>
+        <v>2245.857592802234</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4643,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J6" t="n">
-        <v>404.0232146552985</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K6" t="n">
-        <v>1064.863269197077</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L6" t="n">
-        <v>1064.863269197077</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M6" t="n">
-        <v>1064.863269197077</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N6" t="n">
-        <v>1064.863269197077</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O6" t="n">
-        <v>1064.863269197077</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="P6" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
         <v>1599.468199913098</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1043.799427915185</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C7" t="n">
-        <v>871.2377163984103</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D7" t="n">
-        <v>705.359723599933</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E7" t="n">
-        <v>535.6017198506702</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F7" t="n">
-        <v>358.8946658124264</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G7" t="n">
-        <v>193.303390838254</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H7" t="n">
         <v>53.40121652862856</v>
@@ -4726,16 +4728,16 @@
         <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>414.7393562644539</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
         <v>2154.361157596754</v>
@@ -4747,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434796</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013251</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U7" t="n">
-        <v>1965.089189266357</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V7" t="n">
-        <v>1708.429471986652</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W7" t="n">
-        <v>1708.429471986652</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X7" t="n">
-        <v>1463.037717320064</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y7" t="n">
-        <v>1235.618046634173</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1415.517618276921</v>
+        <v>2480.040423909638</v>
       </c>
       <c r="C8" t="n">
-        <v>977.3751454603448</v>
+        <v>2041.897951093061</v>
       </c>
       <c r="D8" t="n">
-        <v>541.4653606347892</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E8" t="n">
-        <v>479.0428628286129</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>455.2158372782247</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
         <v>53.81800590148855</v>
@@ -4844,10 +4846,10 @@
         <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>2250.103312462176</v>
+        <v>2654.14371650258</v>
       </c>
       <c r="Y8" t="n">
-        <v>1841.817188761829</v>
+        <v>2649.897996842637</v>
       </c>
     </row>
     <row r="9">
@@ -4881,28 +4883,28 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>79.46488968908616</v>
+        <v>515.0619848335836</v>
       </c>
       <c r="L9" t="n">
-        <v>79.46488968908616</v>
+        <v>515.0619848335836</v>
       </c>
       <c r="M9" t="n">
-        <v>79.46488968908616</v>
+        <v>515.0619848335836</v>
       </c>
       <c r="N9" t="n">
-        <v>740.3049442308645</v>
+        <v>515.0619848335836</v>
       </c>
       <c r="O9" t="n">
-        <v>740.3049442308645</v>
+        <v>515.0619848335836</v>
       </c>
       <c r="P9" t="n">
-        <v>1058.729261281022</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="Q9" t="n">
-        <v>1599.468199913098</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4936,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>796.8233805927699</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>624.2616690759949</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>624.2616690759949</v>
+        <v>447.554615037751</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F10" t="n">
         <v>447.554615037751</v>
@@ -4990,22 +4992,22 @@
         <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2298.868337954409</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2020.435337207514</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1733.479829077945</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1461.453424664236</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1216.061669997649</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>988.641999311757</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1355.911046905851</v>
+        <v>2477.959679900129</v>
       </c>
       <c r="C11" t="n">
-        <v>917.7685740892748</v>
+        <v>2039.817207083552</v>
       </c>
       <c r="D11" t="n">
-        <v>917.7685740892748</v>
+        <v>1603.907422257997</v>
       </c>
       <c r="E11" t="n">
-        <v>483.9938292475699</v>
+        <v>1170.132677416292</v>
       </c>
       <c r="F11" t="n">
-        <v>56.12639965677764</v>
+        <v>742.2652478254995</v>
       </c>
       <c r="G11" t="n">
-        <v>56.12639965677764</v>
+        <v>390.7889768453902</v>
       </c>
       <c r="H11" t="n">
-        <v>56.12639965677764</v>
+        <v>101.6588222886064</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677764</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="J11" t="n">
-        <v>491.3810871096955</v>
+        <v>536.4967203686642</v>
       </c>
       <c r="K11" t="n">
-        <v>491.3810871096955</v>
+        <v>1370.847012326842</v>
       </c>
       <c r="L11" t="n">
-        <v>701.5387406219837</v>
+        <v>2445.906978579702</v>
       </c>
       <c r="M11" t="n">
-        <v>1396.102936374607</v>
+        <v>2537.959253671967</v>
       </c>
       <c r="N11" t="n">
-        <v>1396.102936374607</v>
+        <v>2537.959253671967</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.102936374607</v>
+        <v>3518.138920242273</v>
       </c>
       <c r="P11" t="n">
-        <v>2090.66713212723</v>
+        <v>4346.448795075669</v>
       </c>
       <c r="Q11" t="n">
-        <v>2637.165918085825</v>
+        <v>4892.947581034264</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838882</v>
+        <v>5062.10164578732</v>
       </c>
       <c r="S11" t="n">
-        <v>2806.319982838882</v>
+        <v>4978.449771971157</v>
       </c>
       <c r="T11" t="n">
-        <v>2806.319982838882</v>
+        <v>4758.382544844196</v>
       </c>
       <c r="U11" t="n">
-        <v>2806.319982838882</v>
+        <v>4499.160242161212</v>
       </c>
       <c r="V11" t="n">
-        <v>2609.639204511795</v>
+        <v>4136.543292095039</v>
       </c>
       <c r="W11" t="n">
-        <v>2609.639204511795</v>
+        <v>3731.687837506072</v>
       </c>
       <c r="X11" t="n">
-        <v>2190.496741091106</v>
+        <v>3312.545374085383</v>
       </c>
       <c r="Y11" t="n">
-        <v>1782.210617390759</v>
+        <v>2904.259250385036</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>607.4137779070392</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>500.9573167436815</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>405.8670278902347</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>311.7466132171884</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>228.36277483335</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056517</v>
+        <v>142.9776850995339</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677764</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="I12" t="n">
-        <v>82.19007281723523</v>
+        <v>127.305706076204</v>
       </c>
       <c r="J12" t="n">
-        <v>406.7483977834476</v>
+        <v>129.2052255130742</v>
       </c>
       <c r="K12" t="n">
-        <v>406.7483977834476</v>
+        <v>809.9387455834515</v>
       </c>
       <c r="L12" t="n">
-        <v>406.7483977834476</v>
+        <v>1764.481794394555</v>
       </c>
       <c r="M12" t="n">
-        <v>406.7483977834476</v>
+        <v>1764.481794394555</v>
       </c>
       <c r="N12" t="n">
-        <v>406.7483977834476</v>
+        <v>1764.481794394555</v>
       </c>
       <c r="O12" t="n">
-        <v>406.7483977834476</v>
+        <v>1764.481794394555</v>
       </c>
       <c r="P12" t="n">
-        <v>1061.454444409171</v>
+        <v>1764.481794394555</v>
       </c>
       <c r="Q12" t="n">
-        <v>1602.193383041247</v>
+        <v>1764.481794394555</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1764.481794394555</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1701.026356842938</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1570.84771317354</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1394.511166173508</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1195.393648235507</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1010.070893968702</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>855.2034582075815</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>728.7176789868023</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>765.6202370743899</v>
+        <v>951.7380699926775</v>
       </c>
       <c r="C13" t="n">
-        <v>734.0607252169337</v>
+        <v>779.1763584759025</v>
       </c>
       <c r="D13" t="n">
-        <v>568.1827324184565</v>
+        <v>613.2983656774252</v>
       </c>
       <c r="E13" t="n">
-        <v>398.4247286691938</v>
+        <v>443.5403619281625</v>
       </c>
       <c r="F13" t="n">
-        <v>221.71767463095</v>
+        <v>266.8333078899187</v>
       </c>
       <c r="G13" t="n">
-        <v>56.12639965677764</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="H13" t="n">
-        <v>56.12639965677764</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677764</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>187.8217180804363</v>
       </c>
       <c r="K13" t="n">
-        <v>417.4645393926031</v>
+        <v>462.5801726515718</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>880.7900544195329</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1340.273921600446</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1782.532724758091</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2202.201973983872</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>2549.708867954214</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>2717.901642818546</v>
       </c>
       <c r="R13" t="n">
-        <v>2672.786009559577</v>
+        <v>2717.901642818546</v>
       </c>
       <c r="S13" t="n">
-        <v>2513.544640857574</v>
+        <v>2699.662473775862</v>
       </c>
       <c r="T13" t="n">
-        <v>2267.665194436029</v>
+        <v>2453.783027354317</v>
       </c>
       <c r="U13" t="n">
-        <v>1989.232193689134</v>
+        <v>2175.350026607422</v>
       </c>
       <c r="V13" t="n">
-        <v>1702.276685559565</v>
+        <v>1888.394518477852</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.250281145856</v>
+        <v>1616.368114064144</v>
       </c>
       <c r="X13" t="n">
-        <v>1184.858526479269</v>
+        <v>1370.976359397557</v>
       </c>
       <c r="Y13" t="n">
-        <v>957.4388557933771</v>
+        <v>1143.556688711665</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1363.953402140615</v>
+        <v>2527.881240296756</v>
       </c>
       <c r="C14" t="n">
-        <v>925.8109293240379</v>
+        <v>2089.738767480179</v>
       </c>
       <c r="D14" t="n">
-        <v>489.9011444984825</v>
+        <v>1653.828982654623</v>
       </c>
       <c r="E14" t="n">
-        <v>56.12639965677764</v>
+        <v>1220.054237812918</v>
       </c>
       <c r="F14" t="n">
-        <v>56.12639965677764</v>
+        <v>792.1868082221263</v>
       </c>
       <c r="G14" t="n">
-        <v>56.12639965677764</v>
+        <v>390.7889768453902</v>
       </c>
       <c r="H14" t="n">
-        <v>56.12639965677764</v>
+        <v>101.6588222886064</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677764</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="J14" t="n">
-        <v>491.3810871096955</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="K14" t="n">
-        <v>1185.945282862319</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="L14" t="n">
-        <v>1185.945282862319</v>
+        <v>1176.301999168606</v>
       </c>
       <c r="M14" t="n">
-        <v>1185.945282862319</v>
+        <v>2333.349834379157</v>
       </c>
       <c r="N14" t="n">
-        <v>1185.945282862319</v>
+        <v>3459.080817815604</v>
       </c>
       <c r="O14" t="n">
-        <v>1880.509478614942</v>
+        <v>4439.260484385911</v>
       </c>
       <c r="P14" t="n">
-        <v>2575.073674367565</v>
+        <v>5062.10164578732</v>
       </c>
       <c r="Q14" t="n">
-        <v>2637.165918085825</v>
+        <v>5062.10164578732</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838882</v>
+        <v>5062.10164578732</v>
       </c>
       <c r="S14" t="n">
-        <v>2806.319982838882</v>
+        <v>4978.449771971157</v>
       </c>
       <c r="T14" t="n">
-        <v>2806.319982838882</v>
+        <v>4758.382544844196</v>
       </c>
       <c r="U14" t="n">
-        <v>2806.319982838882</v>
+        <v>4549.081802557839</v>
       </c>
       <c r="V14" t="n">
-        <v>2614.250890635179</v>
+        <v>4186.464852491666</v>
       </c>
       <c r="W14" t="n">
-        <v>2209.395436046212</v>
+        <v>3781.609397902699</v>
       </c>
       <c r="X14" t="n">
-        <v>1790.252972625522</v>
+        <v>3362.46693448201</v>
       </c>
       <c r="Y14" t="n">
-        <v>1790.252972625522</v>
+        <v>2954.180810781663</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>607.4137779070392</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>500.9573167436815</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>405.8670278902347</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>311.7466132171884</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>228.36277483335</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056517</v>
+        <v>142.9776850995339</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677764</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="I15" t="n">
-        <v>56.12639965677764</v>
+        <v>127.305706076204</v>
       </c>
       <c r="J15" t="n">
-        <v>56.12639965677764</v>
+        <v>451.8640310424163</v>
       </c>
       <c r="K15" t="n">
-        <v>736.859919727155</v>
+        <v>451.8640310424163</v>
       </c>
       <c r="L15" t="n">
-        <v>736.859919727155</v>
+        <v>451.8640310424163</v>
       </c>
       <c r="M15" t="n">
-        <v>736.859919727155</v>
+        <v>451.8640310424163</v>
       </c>
       <c r="N15" t="n">
-        <v>736.859919727155</v>
+        <v>451.8640310424163</v>
       </c>
       <c r="O15" t="n">
-        <v>736.859919727155</v>
+        <v>451.8640310424163</v>
       </c>
       <c r="P15" t="n">
-        <v>1431.424115479778</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="Q15" t="n">
-        <v>1719.366161135586</v>
+        <v>1647.309016300215</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1764.481794394555</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1701.026356842938</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1570.84771317354</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1394.511166173508</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1195.393648235507</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1010.070893968702</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>855.2034582075815</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>728.7176789868023</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1046.524611043334</v>
+        <v>874.8067442438301</v>
       </c>
       <c r="C16" t="n">
-        <v>873.9628995265592</v>
+        <v>702.245032727055</v>
       </c>
       <c r="D16" t="n">
-        <v>708.0849067280819</v>
+        <v>536.3670399285777</v>
       </c>
       <c r="E16" t="n">
-        <v>538.3269029788192</v>
+        <v>366.6090361793149</v>
       </c>
       <c r="F16" t="n">
-        <v>361.6198489405755</v>
+        <v>189.9019821410711</v>
       </c>
       <c r="G16" t="n">
-        <v>196.0285739664031</v>
+        <v>189.9019821410711</v>
       </c>
       <c r="H16" t="n">
-        <v>56.12639965677764</v>
+        <v>189.9019821410711</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677764</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>187.8217180804363</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>462.5801726515718</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>880.7900544195329</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1340.273921600446</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1782.532724758091</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2202.201973983872</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2549.708867954214</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2717.901642818546</v>
       </c>
       <c r="R16" t="n">
-        <v>2672.786009559577</v>
+        <v>2717.901642818546</v>
       </c>
       <c r="S16" t="n">
-        <v>2513.544640857574</v>
+        <v>2622.731148027014</v>
       </c>
       <c r="T16" t="n">
-        <v>2513.544640857574</v>
+        <v>2376.851701605469</v>
       </c>
       <c r="U16" t="n">
-        <v>2235.111640110679</v>
+        <v>2098.418700858575</v>
       </c>
       <c r="V16" t="n">
-        <v>1948.15613198111</v>
+        <v>1811.463192729005</v>
       </c>
       <c r="W16" t="n">
-        <v>1676.129727567401</v>
+        <v>1539.436788315297</v>
       </c>
       <c r="X16" t="n">
-        <v>1430.737972900814</v>
+        <v>1294.045033648709</v>
       </c>
       <c r="Y16" t="n">
-        <v>1203.318302214922</v>
+        <v>1066.625362962817</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>926.8933538057271</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>2001.953320058587</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423628</v>
+        <v>3159.001155269137</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>4284.732138705584</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>4284.732138705584</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1004.611946844413</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C19" t="n">
-        <v>832.0502353276383</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D19" t="n">
-        <v>666.1722425291648</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E19" t="n">
-        <v>496.4142387799021</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2506.656904206052</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2228.223903459158</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1941.268395329588</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1669.24199091588</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1423.850236249292</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>1196.4305655634</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>537.5155277236975</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L20" t="n">
-        <v>537.5155277236975</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M20" t="n">
-        <v>1694.563362934248</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N20" t="n">
-        <v>2820.294346370695</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5831,28 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>1082.867562242341</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>1082.867562242341</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>1082.867562242341</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3320.902622224261</v>
+        <v>790.336856393767</v>
       </c>
       <c r="C22" t="n">
-        <v>3148.340910707486</v>
+        <v>617.7751448769919</v>
       </c>
       <c r="D22" t="n">
-        <v>3148.340910707486</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="E22" t="n">
-        <v>2978.582906958224</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F22" t="n">
-        <v>2801.87585291998</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>2636.284577945808</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>5091.624192244353</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>4932.38282354235</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>4686.503377120805</v>
+        <v>2292.381813755406</v>
       </c>
       <c r="U22" t="n">
-        <v>4408.070376373911</v>
+        <v>2013.948813008511</v>
       </c>
       <c r="V22" t="n">
-        <v>4121.114868244342</v>
+        <v>1726.993304878942</v>
       </c>
       <c r="W22" t="n">
-        <v>3849.088463830633</v>
+        <v>1454.966900465233</v>
       </c>
       <c r="X22" t="n">
-        <v>3740.14091162914</v>
+        <v>1209.575145798646</v>
       </c>
       <c r="Y22" t="n">
-        <v>3512.721240943249</v>
+        <v>982.1554751127542</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>531.6733301892817</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1068.769857140658</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>896.2081456238831</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>730.3301528254058</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>560.572149076143</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>383.8650950378992</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2292.381813755403</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>2005.426305625833</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1733.399901212125</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1488.008146545537</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1260.588475859645</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6230,22 +6232,22 @@
         <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O26" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C27" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D27" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E27" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F27" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G27" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H27" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M27" t="n">
-        <v>1300.985674363279</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N27" t="n">
-        <v>1300.985674363279</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R27" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S27" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T27" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U27" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V27" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W27" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X27" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y27" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>949.5782250957668</v>
+        <v>3346.878440713113</v>
       </c>
       <c r="C28" t="n">
-        <v>777.0165135789917</v>
+        <v>3174.316729196338</v>
       </c>
       <c r="D28" t="n">
-        <v>611.1385207805145</v>
+        <v>3008.438736397861</v>
       </c>
       <c r="E28" t="n">
-        <v>441.3805170312517</v>
+        <v>2838.680732648598</v>
       </c>
       <c r="F28" t="n">
-        <v>264.6734629930079</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G28" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I28" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J28" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K28" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L28" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M28" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N28" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O28" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P28" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q28" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.502628878951</v>
+        <v>5094.802844496297</v>
       </c>
       <c r="T28" t="n">
-        <v>2451.623182457406</v>
+        <v>4848.923398074752</v>
       </c>
       <c r="U28" t="n">
-        <v>2173.190181710511</v>
+        <v>4570.490397327858</v>
       </c>
       <c r="V28" t="n">
-        <v>1886.234673580942</v>
+        <v>4283.534889198289</v>
       </c>
       <c r="W28" t="n">
-        <v>1614.208269167233</v>
+        <v>4011.50848478458</v>
       </c>
       <c r="X28" t="n">
-        <v>1368.816514500646</v>
+        <v>3766.116730117992</v>
       </c>
       <c r="Y28" t="n">
-        <v>1141.396843814754</v>
+        <v>3538.697059432101</v>
       </c>
     </row>
     <row r="29">
@@ -6464,25 +6466,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>605.8694973157604</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>1680.92946356862</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>2837.977298779171</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>3963.708282215618</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>3879.214741978675</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.659051657336</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C31" t="n">
-        <v>920.0973401405612</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6661,10 +6663,10 @@
         <v>1635.626090461861</v>
       </c>
       <c r="X31" t="n">
-        <v>1511.897341062215</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y31" t="n">
-        <v>1284.477670376323</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="32">
@@ -6701,25 +6703,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>903.2906059188114</v>
+        <v>228.5247761102221</v>
       </c>
       <c r="L32" t="n">
-        <v>1978.350572171671</v>
+        <v>1303.584742363081</v>
       </c>
       <c r="M32" t="n">
-        <v>3135.398407382222</v>
+        <v>2460.632577573632</v>
       </c>
       <c r="N32" t="n">
-        <v>3135.398407382222</v>
+        <v>3586.363561010079</v>
       </c>
       <c r="O32" t="n">
-        <v>4115.578073952528</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="P32" t="n">
-        <v>4943.887948785924</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6774,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1090.187678435286</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>917.6259669185112</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>751.7479741200339</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2313.799635050031</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>2026.844126920461</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1754.817722506753</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1509.425967840165</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1282.006297154273</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6938,25 +6940,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>102.2608402707796</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>1177.320806523639</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>2009.667423945775</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N35" t="n">
-        <v>3135.398407382222</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O35" t="n">
-        <v>4115.578073952528</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7019,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>875.8255515988632</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C37" t="n">
-        <v>703.2638400820881</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D37" t="n">
-        <v>537.3858472836108</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E37" t="n">
-        <v>367.6278435343481</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F37" t="n">
-        <v>190.9207894961043</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
-        <v>190.9207894961043</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798642</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y37" t="n">
-        <v>1067.64417031785</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7175,49 +7177,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>102.2608402707796</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L38" t="n">
-        <v>1177.320806523639</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M38" t="n">
-        <v>2334.36864173419</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N38" t="n">
-        <v>3460.099625170637</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O38" t="n">
-        <v>4440.279291740943</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1057.146432354979</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>884.5847208382039</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>718.7067280397266</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>548.9487242904638</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
         <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057297</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
         <v>190.9207894961043</v>
@@ -7360,22 +7362,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173566</v>
+        <v>1994.290572595111</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1722.264168181403</v>
       </c>
       <c r="X40" t="n">
-        <v>1476.384721759858</v>
+        <v>1476.872413514815</v>
       </c>
       <c r="Y40" t="n">
-        <v>1248.965051073966</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>345.2565542135613</v>
+        <v>2527.881240296756</v>
       </c>
       <c r="C41" t="n">
-        <v>345.2565542135613</v>
+        <v>2089.738767480179</v>
       </c>
       <c r="D41" t="n">
-        <v>345.2565542135613</v>
+        <v>1653.828982654623</v>
       </c>
       <c r="E41" t="n">
-        <v>345.2565542135613</v>
+        <v>1220.054237812918</v>
       </c>
       <c r="F41" t="n">
-        <v>345.2565542135613</v>
+        <v>792.1868082221263</v>
       </c>
       <c r="G41" t="n">
-        <v>345.2565542135613</v>
+        <v>390.7889768453902</v>
       </c>
       <c r="H41" t="n">
-        <v>56.12639965677762</v>
+        <v>101.6588222886064</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677762</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="J41" t="n">
-        <v>56.12639965677762</v>
+        <v>536.4967203686642</v>
       </c>
       <c r="K41" t="n">
-        <v>176.1286096224173</v>
+        <v>1370.847012326842</v>
       </c>
       <c r="L41" t="n">
-        <v>176.1286096224173</v>
+        <v>2361.091085031722</v>
       </c>
       <c r="M41" t="n">
-        <v>176.1286096224173</v>
+        <v>3518.138920242273</v>
       </c>
       <c r="N41" t="n">
-        <v>870.6928053750403</v>
+        <v>3518.138920242273</v>
       </c>
       <c r="O41" t="n">
-        <v>1565.257001127663</v>
+        <v>3518.138920242273</v>
       </c>
       <c r="P41" t="n">
-        <v>2259.821196880286</v>
+        <v>4346.448795075669</v>
       </c>
       <c r="Q41" t="n">
-        <v>2806.319982838881</v>
+        <v>4892.947581034264</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838881</v>
+        <v>5062.10164578732</v>
       </c>
       <c r="S41" t="n">
-        <v>2722.668109022718</v>
+        <v>5028.371332367784</v>
       </c>
       <c r="T41" t="n">
-        <v>2502.600881895757</v>
+        <v>4808.304105240823</v>
       </c>
       <c r="U41" t="n">
-        <v>2243.378579212774</v>
+        <v>4549.081802557839</v>
       </c>
       <c r="V41" t="n">
-        <v>1880.7616291466</v>
+        <v>4186.464852491666</v>
       </c>
       <c r="W41" t="n">
-        <v>1475.906174557633</v>
+        <v>3781.609397902699</v>
       </c>
       <c r="X41" t="n">
-        <v>1056.763711136944</v>
+        <v>3362.46693448201</v>
       </c>
       <c r="Y41" t="n">
-        <v>771.5561246984691</v>
+        <v>2954.180810781663</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>607.4137779070392</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>500.9573167436815</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>405.8670278902347</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>311.7466132171884</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>228.36277483335</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056516</v>
+        <v>142.9776850995339</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677762</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="I42" t="n">
-        <v>82.19007281723522</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="J42" t="n">
-        <v>406.7483977834476</v>
+        <v>264.0251078449798</v>
       </c>
       <c r="K42" t="n">
-        <v>406.7483977834476</v>
+        <v>944.7586279153571</v>
       </c>
       <c r="L42" t="n">
-        <v>406.7483977834476</v>
+        <v>944.7586279153571</v>
       </c>
       <c r="M42" t="n">
-        <v>406.7483977834476</v>
+        <v>944.7586279153571</v>
       </c>
       <c r="N42" t="n">
-        <v>1101.312593536071</v>
+        <v>944.7586279153571</v>
       </c>
       <c r="O42" t="n">
-        <v>1602.193383041247</v>
+        <v>944.7586279153571</v>
       </c>
       <c r="P42" t="n">
-        <v>1602.193383041247</v>
+        <v>1764.481794394555</v>
       </c>
       <c r="Q42" t="n">
-        <v>1602.193383041247</v>
+        <v>1764.481794394555</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>1764.481794394555</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>1701.026356842938</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>1570.84771317354</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>1394.511166173508</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>1195.393648235507</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>1010.070893968702</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>855.2034582075815</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>728.7176789868023</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1052.57574520396</v>
+        <v>951.7380699926775</v>
       </c>
       <c r="C43" t="n">
-        <v>880.0140336871845</v>
+        <v>779.1763584759025</v>
       </c>
       <c r="D43" t="n">
-        <v>714.1360408887072</v>
+        <v>613.2983656774252</v>
       </c>
       <c r="E43" t="n">
-        <v>544.3780371394444</v>
+        <v>443.5403619281625</v>
       </c>
       <c r="F43" t="n">
-        <v>367.6709831012006</v>
+        <v>266.8333078899187</v>
       </c>
       <c r="G43" t="n">
-        <v>202.0797081270283</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="H43" t="n">
-        <v>62.17753381740278</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="I43" t="n">
-        <v>56.12639965677762</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7060848214675</v>
+        <v>187.8217180804363</v>
       </c>
       <c r="K43" t="n">
-        <v>417.4645393926031</v>
+        <v>462.5801726515718</v>
       </c>
       <c r="L43" t="n">
-        <v>835.6744211605641</v>
+        <v>880.7900544195329</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.158288341477</v>
+        <v>1340.273921600446</v>
       </c>
       <c r="N43" t="n">
-        <v>1737.417091499122</v>
+        <v>1782.532724758091</v>
       </c>
       <c r="O43" t="n">
-        <v>2157.086340724903</v>
+        <v>2202.201973983872</v>
       </c>
       <c r="P43" t="n">
-        <v>2504.593234695245</v>
+        <v>2549.708867954214</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.786009559577</v>
+        <v>2717.901642818546</v>
       </c>
       <c r="R43" t="n">
-        <v>2672.786009559577</v>
+        <v>2717.901642818546</v>
       </c>
       <c r="S43" t="n">
-        <v>2513.544640857574</v>
+        <v>2699.662473775862</v>
       </c>
       <c r="T43" t="n">
-        <v>2267.665194436029</v>
+        <v>2453.783027354317</v>
       </c>
       <c r="U43" t="n">
-        <v>1989.232193689134</v>
+        <v>2175.350026607422</v>
       </c>
       <c r="V43" t="n">
-        <v>1989.232193689134</v>
+        <v>1888.394518477852</v>
       </c>
       <c r="W43" t="n">
-        <v>1717.205789275426</v>
+        <v>1616.368114064144</v>
       </c>
       <c r="X43" t="n">
-        <v>1471.814034608838</v>
+        <v>1370.976359397557</v>
       </c>
       <c r="Y43" t="n">
-        <v>1244.394363922947</v>
+        <v>1143.556688711665</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1314.813638445896</v>
+        <v>2477.959679900129</v>
       </c>
       <c r="C44" t="n">
-        <v>919.9036140731254</v>
+        <v>2039.817207083552</v>
       </c>
       <c r="D44" t="n">
-        <v>483.9938292475699</v>
+        <v>1603.907422257997</v>
       </c>
       <c r="E44" t="n">
-        <v>483.9938292475699</v>
+        <v>1170.132677416292</v>
       </c>
       <c r="F44" t="n">
-        <v>56.12639965677762</v>
+        <v>742.2652478254995</v>
       </c>
       <c r="G44" t="n">
-        <v>56.12639965677762</v>
+        <v>390.7889768453902</v>
       </c>
       <c r="H44" t="n">
-        <v>56.12639965677762</v>
+        <v>101.6588222886064</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677762</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="J44" t="n">
-        <v>491.3810871096955</v>
+        <v>536.4967203686642</v>
       </c>
       <c r="K44" t="n">
-        <v>491.3810871096955</v>
+        <v>1370.847012326842</v>
       </c>
       <c r="L44" t="n">
-        <v>491.3810871096955</v>
+        <v>2445.906978579702</v>
       </c>
       <c r="M44" t="n">
-        <v>1185.945282862318</v>
+        <v>3518.138920242273</v>
       </c>
       <c r="N44" t="n">
-        <v>1185.945282862318</v>
+        <v>3518.138920242273</v>
       </c>
       <c r="O44" t="n">
-        <v>1396.102936374607</v>
+        <v>3518.138920242273</v>
       </c>
       <c r="P44" t="n">
-        <v>2090.667132127229</v>
+        <v>4346.448795075669</v>
       </c>
       <c r="Q44" t="n">
-        <v>2637.165918085824</v>
+        <v>4892.947581034264</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838881</v>
+        <v>5062.10164578732</v>
       </c>
       <c r="S44" t="n">
-        <v>2806.319982838881</v>
+        <v>4978.449771971157</v>
       </c>
       <c r="T44" t="n">
-        <v>2806.319982838881</v>
+        <v>4758.382544844196</v>
       </c>
       <c r="U44" t="n">
-        <v>2547.097680155898</v>
+        <v>4499.160242161212</v>
       </c>
       <c r="V44" t="n">
-        <v>2547.097680155898</v>
+        <v>4136.543292095039</v>
       </c>
       <c r="W44" t="n">
-        <v>2142.242225566932</v>
+        <v>3731.687837506072</v>
       </c>
       <c r="X44" t="n">
-        <v>1723.099762146242</v>
+        <v>3312.545374085383</v>
       </c>
       <c r="Y44" t="n">
-        <v>1314.813638445896</v>
+        <v>2904.259250385036</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1649.251966351365</v>
+        <v>607.4137779070392</v>
       </c>
       <c r="C45" t="n">
-        <v>1542.795505188007</v>
+        <v>500.9573167436815</v>
       </c>
       <c r="D45" t="n">
-        <v>1447.705216334561</v>
+        <v>405.8670278902347</v>
       </c>
       <c r="E45" t="n">
-        <v>1353.584801661514</v>
+        <v>311.7466132171884</v>
       </c>
       <c r="F45" t="n">
-        <v>1270.200963277676</v>
+        <v>228.36277483335</v>
       </c>
       <c r="G45" t="n">
-        <v>1184.81587354386</v>
+        <v>142.9776850995339</v>
       </c>
       <c r="H45" t="n">
-        <v>1143.080221360072</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="I45" t="n">
-        <v>1169.14389452053</v>
+        <v>127.305706076204</v>
       </c>
       <c r="J45" t="n">
-        <v>1493.702219486742</v>
+        <v>451.8640310424163</v>
       </c>
       <c r="K45" t="n">
-        <v>2148.408266112466</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="L45" t="n">
-        <v>2148.408266112466</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="M45" t="n">
-        <v>2148.408266112466</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.408266112466</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="O45" t="n">
-        <v>2148.408266112466</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="P45" t="n">
-        <v>2148.408266112466</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="Q45" t="n">
-        <v>2689.147204744541</v>
+        <v>1647.309016300215</v>
       </c>
       <c r="R45" t="n">
-        <v>2806.319982838881</v>
+        <v>1764.481794394555</v>
       </c>
       <c r="S45" t="n">
-        <v>2742.864545287264</v>
+        <v>1701.026356842938</v>
       </c>
       <c r="T45" t="n">
-        <v>2612.685901617866</v>
+        <v>1570.84771317354</v>
       </c>
       <c r="U45" t="n">
-        <v>2436.349354617834</v>
+        <v>1394.511166173508</v>
       </c>
       <c r="V45" t="n">
-        <v>2237.231836679834</v>
+        <v>1195.393648235507</v>
       </c>
       <c r="W45" t="n">
-        <v>2051.909082413028</v>
+        <v>1010.070893968702</v>
       </c>
       <c r="X45" t="n">
-        <v>1897.041646651908</v>
+        <v>855.2034582075815</v>
       </c>
       <c r="Y45" t="n">
-        <v>1770.555867431128</v>
+        <v>728.7176789868023</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>924.8616057763934</v>
+        <v>1091.640244302303</v>
       </c>
       <c r="C46" t="n">
-        <v>752.2998942596183</v>
+        <v>919.078532785528</v>
       </c>
       <c r="D46" t="n">
-        <v>586.421901461141</v>
+        <v>753.2005399870507</v>
       </c>
       <c r="E46" t="n">
-        <v>416.6638977118783</v>
+        <v>583.442536237788</v>
       </c>
       <c r="F46" t="n">
-        <v>239.9568436736345</v>
+        <v>406.7354821995442</v>
       </c>
       <c r="G46" t="n">
-        <v>74.36556869946216</v>
+        <v>241.1442072253719</v>
       </c>
       <c r="H46" t="n">
-        <v>56.12639965677762</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677762</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214675</v>
+        <v>187.8217180804363</v>
       </c>
       <c r="K46" t="n">
-        <v>417.4645393926031</v>
+        <v>462.5801726515718</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605641</v>
+        <v>880.7900544195329</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1340.273921600446</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1782.532724758091</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2202.201973983872</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2549.708867954214</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2717.901642818546</v>
       </c>
       <c r="R46" t="n">
-        <v>2672.786009559577</v>
+        <v>2696.483821523918</v>
       </c>
       <c r="S46" t="n">
-        <v>2672.786009559577</v>
+        <v>2537.242452821915</v>
       </c>
       <c r="T46" t="n">
-        <v>2426.906563138033</v>
+        <v>2291.36300640037</v>
       </c>
       <c r="U46" t="n">
-        <v>2148.473562391138</v>
+        <v>2291.36300640037</v>
       </c>
       <c r="V46" t="n">
-        <v>1861.518054261568</v>
+        <v>2004.4074982708</v>
       </c>
       <c r="W46" t="n">
-        <v>1589.49164984786</v>
+        <v>1756.27028837377</v>
       </c>
       <c r="X46" t="n">
-        <v>1344.099895181272</v>
+        <v>1510.878533707182</v>
       </c>
       <c r="Y46" t="n">
-        <v>1116.680224495381</v>
+        <v>1283.45886302129</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157522</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>20.13097499434639</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8143,19 +8145,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>204.7592244691589</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,7 +8230,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>585.1784344521124</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -8289,31 +8291,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="Q6" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,7 +8376,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960965</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -8529,10 +8531,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>112.1603739174597</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,19 +8543,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>321.6407242930886</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8690,22 +8692,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>212.2804580932204</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>701.5799957097205</v>
+        <v>92.98209605279317</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8766,13 +8768,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>1.918706501889091</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097206</v>
+        <v>629.1324862640504</v>
       </c>
       <c r="Q14" t="n">
-        <v>62.71943809925233</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>701.5799957097205</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q15" t="n">
-        <v>290.850551167483</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>832.9621348837854</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9413,16 +9415,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>756.3484258820586</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,13 +9479,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>689.5283227345933</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9723,22 +9725,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,7 +9880,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>922.699389992646</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9887,7 +9889,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>-5.226490029168309e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10124,7 +10126,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,10 +10199,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166684</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10349,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>809.1209754020524</v>
+        <v>127.53932913075</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10358,19 +10360,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,28 +10588,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>840.7541590122582</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10667,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10823,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -10838,7 +10840,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -10896,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>121.2143535006462</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1000.246538085737</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5799957097203</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097203</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>164.4273484133671</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,19 +11150,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>505.9401914193697</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,22 +11299,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5799957097202</v>
+        <v>1083.062567335931</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>212.2804580932202</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23261,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>49.42234479266051</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>164.2768100216957</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23504,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>49.42234479266028</v>
       </c>
       <c r="V14" t="n">
-        <v>168.8423792838454</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.6746782719255</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23703,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>63.43016517136634</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>212.1323395461432</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>44.07191583437363</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>135.0797604404434</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24376,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>23.65030257151145</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>90.92021546249606</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081424</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>120.446375214272</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25081,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>90.22000922290103</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,13 +25125,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>120.446375214272</v>
       </c>
       <c r="Y37" t="n">
-        <v>84.63380825304864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25558,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>122.9308428424052</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>122.4480280049974</v>
       </c>
     </row>
     <row r="41">
@@ -25628,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>49.42234479266044</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>121.8477518892529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>81.78272691405252</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>42.80012395936825</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>49.42234479266051</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26038,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>120.4463752142715</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26068,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>23.65030257151074</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>579279.5549248317</v>
+        <v>566808.0528671644</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>393188.5585954884</v>
+        <v>589616.1944955114</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>393188.5585954884</v>
+        <v>589616.1944955114</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>594051.9500359027</v>
+        <v>594051.9500359024</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>594051.9500359024</v>
+        <v>594051.9500359027</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>594051.9500359024</v>
+        <v>594051.9500359026</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>594051.9500359024</v>
+        <v>594051.9500359026</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>594051.9500359024</v>
+        <v>594051.9500359026</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>393188.5585954883</v>
+        <v>589616.1944955114</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>393188.5585954883</v>
+        <v>589616.1944955115</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26319,43 @@
         <v>402110.4899178063</v>
       </c>
       <c r="D2" t="n">
-        <v>402110.4899178064</v>
+        <v>402110.4899178063</v>
       </c>
       <c r="E2" t="n">
-        <v>261535.6797661557</v>
+        <v>392192.6741188923</v>
       </c>
       <c r="F2" t="n">
-        <v>261535.6797661556</v>
+        <v>392192.6741188923</v>
       </c>
       <c r="G2" t="n">
-        <v>395143.1881030142</v>
+        <v>395143.1881030143</v>
       </c>
       <c r="H2" t="n">
-        <v>395143.1881030142</v>
+        <v>395143.1881030144</v>
       </c>
       <c r="I2" t="n">
         <v>395143.1881030141</v>
       </c>
       <c r="J2" t="n">
-        <v>395143.1881030142</v>
+        <v>395143.1881030141</v>
       </c>
       <c r="K2" t="n">
-        <v>395143.1881030142</v>
+        <v>395143.1881030141</v>
       </c>
       <c r="L2" t="n">
-        <v>395143.1881030142</v>
+        <v>395143.1881030141</v>
       </c>
       <c r="M2" t="n">
         <v>395143.1881030142</v>
       </c>
       <c r="N2" t="n">
-        <v>395143.1881030141</v>
+        <v>395143.1881030143</v>
       </c>
       <c r="O2" t="n">
-        <v>261535.6797661556</v>
+        <v>392192.6741188924</v>
       </c>
       <c r="P2" t="n">
-        <v>261535.6797661556</v>
+        <v>392192.6741188923</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840448</v>
+        <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>78577.04195825371</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045622</v>
+        <v>178552.6909404109</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461092</v>
+        <v>3490.497673803512</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177061</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>62596.87743601672</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340775</v>
+        <v>149026.5350866915</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156636.6412526738</v>
+        <v>199828.8262465156</v>
       </c>
       <c r="C4" t="n">
         <v>156636.6412526738</v>
@@ -26424,40 +26426,40 @@
         <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>45008.0107341682</v>
+        <v>67492.94055169866</v>
       </c>
       <c r="F4" t="n">
-        <v>45008.01073416821</v>
+        <v>67492.94055169864</v>
       </c>
       <c r="G4" t="n">
-        <v>68000.69828933282</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="H4" t="n">
+        <v>68000.69828933281</v>
+      </c>
+      <c r="I4" t="n">
         <v>68000.69828933279</v>
-      </c>
-      <c r="I4" t="n">
-        <v>68000.69828933281</v>
       </c>
       <c r="J4" t="n">
         <v>68000.69828933281</v>
       </c>
       <c r="K4" t="n">
+        <v>68000.69828933279</v>
+      </c>
+      <c r="L4" t="n">
+        <v>68000.69828933279</v>
+      </c>
+      <c r="M4" t="n">
+        <v>68000.69828933282</v>
+      </c>
+      <c r="N4" t="n">
         <v>68000.69828933281</v>
       </c>
-      <c r="L4" t="n">
-        <v>68000.69828933281</v>
-      </c>
-      <c r="M4" t="n">
-        <v>68000.69828933281</v>
-      </c>
-      <c r="N4" t="n">
-        <v>68000.69828933279</v>
-      </c>
       <c r="O4" t="n">
-        <v>45008.0107341682</v>
+        <v>67492.94055169866</v>
       </c>
       <c r="P4" t="n">
-        <v>45008.01073416819</v>
+        <v>67492.94055169867</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.5245617577</v>
+        <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
         <v>74212.5245617577</v>
@@ -26476,10 +26478,10 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.063739151</v>
+        <v>76943.94501596727</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.063739151</v>
+        <v>76943.94501596727</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.06373915099</v>
+        <v>76943.94501596727</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.06373915099</v>
+        <v>76943.94501596727</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-52438.37448066998</v>
+        <v>665.5748743584845</v>
       </c>
       <c r="C6" t="n">
+        <v>92684.28214512115</v>
+      </c>
+      <c r="D6" t="n">
         <v>171261.3241033748</v>
       </c>
-      <c r="D6" t="n">
-        <v>171261.324103375</v>
-      </c>
       <c r="E6" t="n">
-        <v>163700.6086923803</v>
+        <v>69203.09761081546</v>
       </c>
       <c r="F6" t="n">
-        <v>173871.6052928364</v>
+        <v>247755.7885512265</v>
       </c>
       <c r="G6" t="n">
-        <v>91364.77426177965</v>
+        <v>245933.7535340854</v>
       </c>
       <c r="H6" t="n">
-        <v>249424.2512078889</v>
+        <v>249424.2512078891</v>
       </c>
       <c r="I6" t="n">
         <v>249424.2512078888</v>
       </c>
       <c r="J6" t="n">
-        <v>74772.90249018272</v>
+        <v>138409.7858628986</v>
       </c>
       <c r="K6" t="n">
+        <v>186827.3737718721</v>
+      </c>
+      <c r="L6" t="n">
+        <v>249424.2512078888</v>
+      </c>
+      <c r="M6" t="n">
+        <v>100397.7161211974</v>
+      </c>
+      <c r="N6" t="n">
         <v>249424.2512078889</v>
       </c>
-      <c r="L6" t="n">
-        <v>249424.2512078889</v>
-      </c>
-      <c r="M6" t="n">
-        <v>240935.1695045481</v>
-      </c>
-      <c r="N6" t="n">
-        <v>249424.2512078888</v>
-      </c>
       <c r="O6" t="n">
-        <v>173871.6052928364</v>
+        <v>247755.7885512265</v>
       </c>
       <c r="P6" t="n">
-        <v>173871.6052928364</v>
+        <v>247755.7885512263</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
         <v>667.515206607857</v>
@@ -26796,10 +26798,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097205</v>
+        <v>1265.52541144683</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097205</v>
+        <v>1265.52541144683</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097203</v>
+        <v>1265.52541144683</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097203</v>
+        <v>1265.52541144683</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>243.2193490877526</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186355</v>
+        <v>598.0102048389731</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.6805076750248</v>
+        <v>12.73509193791529</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>243.2193490877526</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186343</v>
+        <v>598.0102048389731</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>243.2193490877526</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186355</v>
+        <v>598.0102048389731</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.6805076750248</v>
+        <v>12.73509193791529</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,25 +27381,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>367.6387245651729</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.013840566137503</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27439,10 +27441,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27546,13 +27548,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27582,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,13 +27596,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>109.3985407791401</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>33.56143344735591</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>367.2261030860413</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>330.5777375461343</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27667,22 +27669,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>400</v>
       </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27789,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,10 +27833,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>29.99283294136603</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>253.8775775763891</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>367.6387245651732</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27916,10 +27918,10 @@
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28014,13 +28016,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>44.07191583437682</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28062,7 +28064,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>54.79268646174552</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28576,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28725,7 +28727,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>3.770613451100265e-12</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157523</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34793,10 +34795,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>20.13097499434639</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>204.7592244691589</v>
       </c>
       <c r="P4" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,7 +34950,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>585.1784344521124</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -35009,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="Q6" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35094,19 +35096,19 @@
         <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960965</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35249,10 +35251,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>112.1603739174597</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,19 +35263,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>321.6407242930886</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35410,28 +35412,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850285</v>
       </c>
       <c r="L11" t="n">
-        <v>212.2804580932204</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>701.5799957097205</v>
+        <v>92.98209605279317</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,13 +35488,13 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
-        <v>327.8366918850629</v>
+        <v>1.918706501889091</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35504,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35571,10 +35573,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097206</v>
+        <v>629.1324862640504</v>
       </c>
       <c r="Q14" t="n">
-        <v>62.71943809925233</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>701.5799957097205</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q15" t="n">
-        <v>290.850551167483</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35808,10 +35810,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>832.9621348837854</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -36133,16 +36135,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>756.3484258820586</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,13 +36199,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36212,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>689.5283227345933</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36443,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36598,16 +36600,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>922.699389992646</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36616,7 +36618,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>-1.358033040607337e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36765,13 +36767,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36841,10 +36843,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36853,7 +36855,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,10 +36919,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166684</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>809.1209754020524</v>
+        <v>127.53932913075</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37078,19 +37080,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,28 +37308,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>840.7541590122582</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37394,7 +37396,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37543,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37558,7 +37560,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37616,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37631,19 +37633,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>121.2143535006462</v>
+        <v>842.7780726850285</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1000.246538085737</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5799957097203</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097203</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>164.4273484133671</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37868,19 +37870,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>505.9401914193697</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,16 +37937,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -38017,28 +38019,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850285</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5799957097202</v>
+        <v>1083.062567335931</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>212.2804580932202</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1384167.590460327</v>
+        <v>1383641.037694789</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16614581.94299117</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>318032.2590466434</v>
+        <v>278692.0725916856</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6801029.080751615</v>
+        <v>6812159.980254078</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>421.5749147287468</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>351.6975488264539</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -876,13 +876,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>283.3977343203893</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>209.3764036725657</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>54.8104716940174</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>101.6570149051948</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1068,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>18.05677735225757</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1113,7 +1113,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>76.63784752867096</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>168.1589972036696</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>162.8596001754287</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1296,13 +1296,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>120.1472970361157</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1384,7 +1384,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>347.9615082703082</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1590,7 +1590,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>129.7139627068452</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1615,7 +1615,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -1663,7 +1663,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>207.207734863493</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1779,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>87.77334973306745</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>94.21878984361696</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>146.8581123645779</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1827,7 +1827,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1855,7 +1855,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948854</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -2004,7 +2004,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2016,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2064,7 +2064,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>53.06991172717375</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2098,7 +2098,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2134,7 +2134,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2244,10 +2244,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>120.1472970361189</v>
+        <v>109.7358283393314</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573255</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2478,7 +2478,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>26.70160847752037</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2493,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2541,7 +2541,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2715,7 +2715,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2730,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2775,7 +2775,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>231.9225098238354</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2952,13 +2952,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>90.32734763589799</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>18.05677735225717</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3195,7 +3195,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>50.29424103733277</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3204,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3249,7 +3249,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3435,13 +3435,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>14.14416275345333</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3489,7 +3489,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>122.4914619056497</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3517,13 +3517,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H38" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.1013595417833</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>102.6974459740354</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3754,7 +3754,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>33.39301028534092</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>45.76594660771036</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3915,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3963,7 +3963,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3979,7 +3979,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3991,7 +3991,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>347.9615082703082</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
@@ -4155,7 +4155,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>245.6558377980606</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1351.042333103999</v>
+        <v>547.9560900011804</v>
       </c>
       <c r="C2" t="n">
-        <v>1316.940264327826</v>
+        <v>119.3744157384487</v>
       </c>
       <c r="D2" t="n">
-        <v>888.3585900650944</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E2" t="n">
-        <v>459.7769158023627</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
         <v>33.94366860160834</v>
@@ -4339,16 +4339,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>1294.102365436318</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>1294.102365436318</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1393.464329137293</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W2" t="n">
-        <v>1392.64927858873</v>
+        <v>1333.751429465681</v>
       </c>
       <c r="X2" t="n">
-        <v>1377.547219208445</v>
+        <v>978.5013801460308</v>
       </c>
       <c r="Y2" t="n">
-        <v>1373.301499548503</v>
+        <v>974.2556604860882</v>
       </c>
     </row>
     <row r="3">
@@ -4412,22 +4412,22 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>542.1413766661235</v>
+        <v>206.5053801183834</v>
       </c>
       <c r="C4" t="n">
-        <v>369.5796651493484</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D4" t="n">
-        <v>203.7016723508711</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
         <v>33.94366860160834</v>
@@ -4500,40 +4500,40 @@
         <v>726.9120049407049</v>
       </c>
       <c r="N4" t="n">
-        <v>1146.964903885608</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1172.870982911978</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1172.870982911978</v>
+        <v>705.9514552179836</v>
       </c>
       <c r="W4" t="n">
-        <v>1172.870982911978</v>
+        <v>433.9250508042751</v>
       </c>
       <c r="X4" t="n">
-        <v>961.3796660710025</v>
+        <v>433.9250508042751</v>
       </c>
       <c r="Y4" t="n">
-        <v>733.9599953851107</v>
+        <v>206.5053801183834</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2190.493479979994</v>
+        <v>241.1964645297894</v>
       </c>
       <c r="C5" t="n">
-        <v>1752.351007163417</v>
+        <v>207.0943957536168</v>
       </c>
       <c r="D5" t="n">
-        <v>1316.441222337862</v>
+        <v>104.4105423140261</v>
       </c>
       <c r="E5" t="n">
-        <v>882.6664774961569</v>
+        <v>74.67620151272533</v>
       </c>
       <c r="F5" t="n">
-        <v>454.7990479053647</v>
+        <v>50.84917596233712</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.84917596233712</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.84917596233712</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="J5" t="n">
-        <v>488.6559039815464</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>1149.495958523325</v>
+        <v>557.7649106726459</v>
       </c>
       <c r="L5" t="n">
-        <v>1149.495958523325</v>
+        <v>557.7649106726459</v>
       </c>
       <c r="M5" t="n">
-        <v>1149.495958523325</v>
+        <v>557.7649106726459</v>
       </c>
       <c r="N5" t="n">
-        <v>1149.495958523325</v>
+        <v>557.7649106726459</v>
       </c>
       <c r="O5" t="n">
-        <v>1293.567921177998</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719776</v>
+        <v>1805.966478762205</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2352.465264720799</v>
       </c>
       <c r="R5" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2262.397026790873</v>
       </c>
       <c r="V5" t="n">
-        <v>2670.060826431428</v>
+        <v>1899.7800767247</v>
       </c>
       <c r="W5" t="n">
-        <v>2265.205371842461</v>
+        <v>1494.924622135733</v>
       </c>
       <c r="X5" t="n">
-        <v>2250.103312462176</v>
+        <v>1075.782158715044</v>
       </c>
       <c r="Y5" t="n">
-        <v>2245.857592802234</v>
+        <v>667.4960350146972</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>559.5729615199214</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>453.1165003565636</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>358.0262115031169</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>263.9057968300706</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>180.5219584462322</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>95.13686871241609</v>
+        <v>92.16803877326466</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>76.49605974993473</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862856</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862856</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="L6" t="n">
-        <v>53.40121652862856</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="M6" t="n">
-        <v>53.40121652862856</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>53.40121652862856</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>714.2412710704069</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1058.729261281022</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1599.468199913098</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1716.640978007438</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1653.185540455821</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1523.006896786422</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1346.67034978639</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1147.55283184839</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>962.2300775815838</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>807.3626418204638</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>680.8768625996845</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>922.1364226482442</v>
+        <v>823.9970979175607</v>
       </c>
       <c r="C7" t="n">
-        <v>749.5747111314691</v>
+        <v>651.4353864007857</v>
       </c>
       <c r="D7" t="n">
-        <v>583.6967183329918</v>
+        <v>485.5573936023083</v>
       </c>
       <c r="E7" t="n">
-        <v>413.9387145837291</v>
+        <v>315.7993898530456</v>
       </c>
       <c r="F7" t="n">
-        <v>237.2316605454853</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="G7" t="n">
-        <v>71.64038557131298</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="H7" t="n">
-        <v>53.40121652862856</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933184</v>
+        <v>137.012071754167</v>
       </c>
       <c r="K7" t="n">
-        <v>414.739356264454</v>
+        <v>411.7705263253026</v>
       </c>
       <c r="L7" t="n">
-        <v>832.9492380324151</v>
+        <v>829.9804080932637</v>
       </c>
       <c r="M7" t="n">
-        <v>1292.433105213328</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370973</v>
+        <v>1586.250411413401</v>
       </c>
       <c r="O7" t="n">
-        <v>2154.361157596754</v>
+        <v>2005.919660639182</v>
       </c>
       <c r="P7" t="n">
-        <v>2501.868051567096</v>
+        <v>2353.426554609524</v>
       </c>
       <c r="Q7" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="R7" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="S7" t="n">
-        <v>2670.060826431428</v>
+        <v>2362.377960771853</v>
       </c>
       <c r="T7" t="n">
-        <v>2424.181380009883</v>
+        <v>2116.498514350308</v>
       </c>
       <c r="U7" t="n">
-        <v>2145.748379262989</v>
+        <v>1838.065513603413</v>
       </c>
       <c r="V7" t="n">
-        <v>1858.792871133419</v>
+        <v>1760.653546402736</v>
       </c>
       <c r="W7" t="n">
-        <v>1586.766466719711</v>
+        <v>1488.627141989027</v>
       </c>
       <c r="X7" t="n">
-        <v>1341.374712053123</v>
+        <v>1243.23538732244</v>
       </c>
       <c r="Y7" t="n">
-        <v>1113.955041367231</v>
+        <v>1015.815716636548</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2480.040423909638</v>
+        <v>710.0264917116014</v>
       </c>
       <c r="C8" t="n">
-        <v>2041.897951093061</v>
+        <v>271.8840188950247</v>
       </c>
       <c r="D8" t="n">
-        <v>1605.988166267505</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E8" t="n">
-        <v>1172.213421425801</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
-        <v>744.3459918350084</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
         <v>53.81800590148855</v>
@@ -4810,13 +4810,13 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
@@ -4831,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W8" t="n">
-        <v>2669.245775882865</v>
+        <v>1963.754649317545</v>
       </c>
       <c r="X8" t="n">
-        <v>2654.14371650258</v>
+        <v>1544.612185896856</v>
       </c>
       <c r="Y8" t="n">
-        <v>2649.897996842637</v>
+        <v>1136.326062196509</v>
       </c>
     </row>
     <row r="9">
@@ -4886,25 +4886,25 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>515.0619848335836</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>515.0619848335836</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>515.0619848335836</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>515.0619848335836</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>515.0619848335836</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.4772326516127</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>568.9155211348376</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>447.554615037751</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>447.554615037751</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
         <v>447.554615037751</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705998</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2477.959679900129</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2039.817207083552</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1603.907422257997</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E11" t="n">
-        <v>1170.132677416292</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>742.2652478254995</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>390.7889768453902</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H11" t="n">
-        <v>101.6588222886064</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>101.2420329157464</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>536.4967203686642</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1370.847012326842</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2445.906978579702</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2537.959253671967</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2537.959253671967</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>3518.138920242273</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>4346.448795075669</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4892.947581034264</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>5062.10164578732</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>4978.449771971157</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>4758.382544844196</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4499.160242161212</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>4136.543292095039</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3731.687837506072</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3312.545374085383</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2904.259250385036</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>607.4137779070392</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>500.9573167436815</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>405.8670278902347</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>311.7466132171884</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>228.36277483335</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>142.9776850995339</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>101.2420329157464</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>127.305706076204</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2052255130742</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>809.9387455834515</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1764.481794394555</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1764.481794394555</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1764.481794394555</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1764.481794394555</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1764.481794394555</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1764.481794394555</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1764.481794394555</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1701.026356842938</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1570.84771317354</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1394.511166173508</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1195.393648235507</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1010.070893968702</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>855.2034582075815</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>728.7176789868023</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.7380699926775</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>779.1763584759025</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>613.2983656774252</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>443.5403619281625</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>266.8333078899187</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>101.2420329157464</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>101.2420329157464</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>101.2420329157464</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>187.8217180804363</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>462.5801726515718</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>880.7900544195329</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1340.273921600446</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1782.532724758091</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2202.201973983872</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2549.708867954214</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2717.901642818546</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2717.901642818546</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2699.662473775862</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2453.783027354317</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>2175.350026607422</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>1888.394518477852</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W13" t="n">
-        <v>1616.368114064144</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X13" t="n">
-        <v>1370.976359397557</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>1143.556688711665</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2527.881240296756</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2089.738767480179</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1653.828982654623</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>1220.054237812918</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>792.1868082221263</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>390.7889768453902</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>101.6588222886064</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>101.2420329157464</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>101.2420329157464</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>101.2420329157464</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1176.301999168606</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2333.349834379157</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>3459.080817815604</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>4439.260484385911</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>5062.10164578732</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>5062.10164578732</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>5062.10164578732</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>4978.449771971157</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4758.382544844196</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4549.081802557839</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4186.464852491666</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3781.609397902699</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3362.46693448201</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2954.180810781663</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>607.4137779070392</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>500.9573167436815</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>405.8670278902347</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>311.7466132171884</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>228.36277483335</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>142.9776850995339</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>101.2420329157464</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>127.305706076204</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>451.8640310424163</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>451.8640310424163</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>451.8640310424163</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>451.8640310424163</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>451.8640310424163</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>451.8640310424163</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1106.57007766814</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1647.309016300215</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1764.481794394555</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1701.026356842938</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1570.84771317354</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1394.511166173508</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1195.393648235507</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1010.070893968702</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>855.2034582075815</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>728.7176789868023</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8067442438301</v>
+        <v>1181.319000882657</v>
       </c>
       <c r="C16" t="n">
-        <v>702.245032727055</v>
+        <v>1008.757289365882</v>
       </c>
       <c r="D16" t="n">
-        <v>536.3670399285777</v>
+        <v>842.8792965674047</v>
       </c>
       <c r="E16" t="n">
-        <v>366.6090361793149</v>
+        <v>673.1212928181419</v>
       </c>
       <c r="F16" t="n">
-        <v>189.9019821410711</v>
+        <v>496.4142387798981</v>
       </c>
       <c r="G16" t="n">
-        <v>189.9019821410711</v>
+        <v>330.8229638057257</v>
       </c>
       <c r="H16" t="n">
-        <v>189.9019821410711</v>
+        <v>190.9207894961003</v>
       </c>
       <c r="I16" t="n">
-        <v>101.2420329157464</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>187.8217180804363</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>462.5801726515718</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>880.7900544195329</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1340.273921600446</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1782.532724758091</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2202.201973983872</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2549.708867954214</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2717.901642818546</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2717.901642818546</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2622.731148027014</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2376.851701605469</v>
+        <v>2411.337553830588</v>
       </c>
       <c r="U16" t="n">
-        <v>2098.418700858575</v>
+        <v>2132.904553083693</v>
       </c>
       <c r="V16" t="n">
-        <v>1811.463192729005</v>
+        <v>1845.949044954124</v>
       </c>
       <c r="W16" t="n">
-        <v>1539.436788315297</v>
+        <v>1845.949044954124</v>
       </c>
       <c r="X16" t="n">
-        <v>1294.045033648709</v>
+        <v>1600.557290287536</v>
       </c>
       <c r="Y16" t="n">
-        <v>1066.625362962817</v>
+        <v>1373.137619601644</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>926.8933538057271</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2001.953320058587</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>3159.001155269137</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>4284.732138705584</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>4284.732138705584</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>811.7546776883914</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C19" t="n">
-        <v>639.1929661716164</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>473.3149733731391</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>303.5569696238763</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>126.8499155856325</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>188.8405254354695</v>
+        <v>188.840525435473</v>
       </c>
       <c r="K19" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066087</v>
       </c>
       <c r="L19" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745697</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176951</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755406</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008511</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878942</v>
       </c>
       <c r="W19" t="n">
-        <v>1476.384721759858</v>
+        <v>1673.387333437352</v>
       </c>
       <c r="X19" t="n">
-        <v>1230.99296709327</v>
+        <v>1427.995578770765</v>
       </c>
       <c r="Y19" t="n">
-        <v>1003.573296407379</v>
+        <v>1200.575908084873</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5752,28 +5752,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
@@ -5782,22 +5782,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>1082.867562242341</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1082.867562242341</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1082.867562242341</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>790.336856393767</v>
+        <v>949.5782250957695</v>
       </c>
       <c r="C22" t="n">
-        <v>617.7751448769919</v>
+        <v>777.0165135789945</v>
       </c>
       <c r="D22" t="n">
-        <v>496.4142387799021</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E22" t="n">
         <v>496.4142387799021</v>
@@ -5928,34 +5928,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.72767530925</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2697.502628878954</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878954</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755406</v>
+        <v>2451.623182457409</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008511</v>
+        <v>2173.190181710514</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878942</v>
+        <v>1886.234673580944</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.966900465233</v>
+        <v>1614.208269167236</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798646</v>
+        <v>1368.816514500649</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1554751127542</v>
+        <v>1141.396843814757</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6071,19 +6071,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>1035.728611060351</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1227.547229779338</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E27" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F27" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S27" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T27" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U27" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V27" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W27" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X27" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y27" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3346.878440713113</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C28" t="n">
-        <v>3174.316729196338</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>3008.438736397861</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>2838.680732648598</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>2661.973678610354</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>2496.382403636182</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O28" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P28" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>5094.802844496297</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>4848.923398074752</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>4570.490397327858</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>4283.534889198289</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>4011.50848478458</v>
+        <v>1673.387333437352</v>
       </c>
       <c r="X28" t="n">
-        <v>3766.116730117992</v>
+        <v>1427.995578770765</v>
       </c>
       <c r="Y28" t="n">
-        <v>3538.697059432101</v>
+        <v>1200.575908084873</v>
       </c>
     </row>
     <row r="29">
@@ -6463,25 +6463,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>605.8694973157604</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1680.92946356862</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2837.977298779171</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
-        <v>3963.708282215618</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>4943.887948785924</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
         <v>4943.887948785924</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>970.9960463903949</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C31" t="n">
-        <v>798.4343348736198</v>
+        <v>699.0971113069977</v>
       </c>
       <c r="D31" t="n">
-        <v>632.5563420751425</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="E31" t="n">
-        <v>462.7983383258798</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F31" t="n">
-        <v>286.091284287636</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G31" t="n">
-        <v>120.5000093134636</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H31" t="n">
-        <v>120.5000093134636</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461861</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.234335795274</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y31" t="n">
-        <v>1162.814665109382</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>228.5247761102221</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1303.584742363081</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2460.632577573632</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>3586.363561010079</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>4566.543227580386</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6776,10 +6776,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
         <v>1107.588885023173</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>1062.363260807472</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>889.8015492906967</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>723.9235564922194</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1481.601550212351</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1254.181879526459</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.659051657336</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C37" t="n">
-        <v>920.0973401405612</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D37" t="n">
-        <v>754.2193473420839</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E37" t="n">
-        <v>584.4613435928212</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F37" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461861</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1511.897341062215</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.477670376323</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="38">
@@ -7165,37 +7165,37 @@
         <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
         <v>5113.042013538981</v>
@@ -7359,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2559.679081471576</v>
+        <v>2491.545339525313</v>
       </c>
       <c r="U40" t="n">
-        <v>2281.246080724681</v>
+        <v>2213.112338778418</v>
       </c>
       <c r="V40" t="n">
-        <v>1994.290572595111</v>
+        <v>1926.156830648849</v>
       </c>
       <c r="W40" t="n">
-        <v>1722.264168181403</v>
+        <v>1654.13042623514</v>
       </c>
       <c r="X40" t="n">
-        <v>1476.872413514815</v>
+        <v>1408.738671568553</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2527.881240296756</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2089.738767480179</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1653.828982654623</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>1220.054237812918</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>792.1868082221263</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G41" t="n">
-        <v>390.7889768453902</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>101.6588222886064</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>101.2420329157464</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>536.4967203686642</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.847012326842</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2361.091085031722</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>3518.138920242273</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>3518.138920242273</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3518.138920242273</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4346.448795075669</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4892.947581034264</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5062.10164578732</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5028.371332367784</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4808.304105240823</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4549.081802557839</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4186.464852491666</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3781.609397902699</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3362.46693448201</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2954.180810781663</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>607.4137779070392</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>500.9573167436815</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>405.8670278902347</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>311.7466132171884</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>228.36277483335</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>142.9776850995339</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>101.2420329157464</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>101.2420329157464</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>264.0251078449798</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>944.7586279153571</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>944.7586279153571</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>944.7586279153571</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>944.7586279153571</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>944.7586279153571</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1764.481794394555</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1764.481794394555</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1764.481794394555</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1701.026356842938</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.84771317354</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1394.511166173508</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1195.393648235507</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1010.070893968702</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>855.2034582075815</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>728.7176789868023</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>951.7380699926775</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C43" t="n">
-        <v>779.1763584759025</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D43" t="n">
-        <v>613.2983656774252</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E43" t="n">
-        <v>443.5403619281625</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>266.8333078899187</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>101.2420329157464</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H43" t="n">
-        <v>101.2420329157464</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>101.2420329157464</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>187.8217180804363</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>462.5801726515718</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>880.7900544195329</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1340.273921600446</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1782.532724758091</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2202.201973983872</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2549.708867954214</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.901642818546</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2717.901642818546</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2699.662473775862</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2453.783027354317</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>2175.350026607422</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V43" t="n">
-        <v>1888.394518477852</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W43" t="n">
-        <v>1616.368114064144</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X43" t="n">
-        <v>1370.976359397557</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="Y43" t="n">
-        <v>1143.556688711665</v>
+        <v>1227.547229779338</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2477.959679900129</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>2039.817207083552</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1603.907422257997</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1170.132677416292</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>742.2652478254995</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>390.7889768453902</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>101.6588222886064</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>101.2420329157464</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>536.4967203686642</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1370.847012326842</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2445.906978579702</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>3518.138920242273</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>3518.138920242273</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3518.138920242273</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>4346.448795075669</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4892.947581034264</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5062.10164578732</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>4978.449771971157</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4758.382544844196</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4499.160242161212</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4136.543292095039</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3731.687837506072</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3312.545374085383</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2904.259250385036</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>607.4137779070392</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>500.9573167436815</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>405.8670278902347</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>311.7466132171884</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>228.36277483335</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>142.9776850995339</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>101.2420329157464</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>127.305706076204</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>451.8640310424163</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1106.57007766814</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1106.57007766814</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1106.57007766814</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1106.57007766814</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1106.57007766814</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1106.57007766814</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1647.309016300215</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1764.481794394555</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1701.026356842938</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1570.84771317354</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1394.511166173508</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1195.393648235507</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1010.070893968702</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>855.2034582075815</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>728.7176789868023</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1091.640244302303</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C46" t="n">
-        <v>919.078532785528</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D46" t="n">
-        <v>753.2005399870507</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E46" t="n">
-        <v>583.442536237788</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F46" t="n">
-        <v>406.7354821995442</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>241.1442072253719</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H46" t="n">
-        <v>101.2420329157464</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>101.2420329157464</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>187.8217180804363</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>462.5801726515718</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>880.7900544195329</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1340.273921600446</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1782.532724758091</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2202.201973983872</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2549.708867954214</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2717.901642818546</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2696.483821523918</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2537.242452821915</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2291.36300640037</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>2291.36300640037</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V46" t="n">
-        <v>2004.4074982708</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W46" t="n">
-        <v>1756.27028837377</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X46" t="n">
-        <v>1510.878533707182</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y46" t="n">
-        <v>1283.45886302129</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
   </sheetData>
@@ -7987,19 +7987,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8060,25 +8060,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>424.2958575201043</v>
-      </c>
       <c r="Q3" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8148,16 +8148,16 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="O4" t="n">
-        <v>204.7592244691589</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,7 +8218,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>667.515206607857</v>
+        <v>72.80589558611206</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8230,10 +8230,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>145.5272350047205</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8291,28 +8291,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>30.91440664741845</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8385,7 +8385,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>446.7260637956006</v>
+        <v>299.7839758982059</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8458,16 +8458,16 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8534,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>112.1603739174597</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8698,10 +8698,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>92.98209605279317</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8768,16 +8768,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>1.918706501889091</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>629.1324862640504</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>832.9621348837854</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>689.5283227345933</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>922.699389992646</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>508.6956131767483</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>127.53932913075</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10594,22 +10594,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11065,16 +11065,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1000.246538085737</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>164.4273484133671</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,13 +11305,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1083.062567335931</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>49.42234479266051</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>49.42234479266028</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>63.43016517136634</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>96.56253959275136</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>216.2362286423976</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>44.07191583437363</v>
+        <v>54.48338453116116</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>144.134485924087</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>37.38363054573603</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>80.50874676570932</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>69.71657238081424</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>117.7661826744373</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25323,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>120.446375214272</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>18.31929241554602</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>122.4480280049974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>49.42234479266044</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>144.1344859240869</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>49.42234479266051</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>23.65030257151074</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>579279.5549248317</v>
+        <v>577376.6548865605</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>589616.1944955114</v>
+        <v>594051.9500359024</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>589616.1944955114</v>
+        <v>594051.9500359027</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>594051.9500359024</v>
+        <v>594051.9500359027</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>594051.9500359027</v>
+        <v>594051.9500359026</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>594051.9500359026</v>
+        <v>594051.9500359024</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>594051.9500359026</v>
+        <v>594051.9500359024</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>594051.9500359024</v>
+        <v>594051.9500359027</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>589616.1944955114</v>
+        <v>594051.9500359026</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>589616.1944955115</v>
+        <v>594051.9500359026</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>402110.4899178063</v>
+        <v>402110.4899178064</v>
       </c>
       <c r="C2" t="n">
         <v>402110.4899178063</v>
       </c>
       <c r="D2" t="n">
-        <v>402110.4899178063</v>
+        <v>402110.4899178064</v>
       </c>
       <c r="E2" t="n">
-        <v>392192.6741188923</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="F2" t="n">
-        <v>392192.6741188923</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="G2" t="n">
+        <v>395143.1881030142</v>
+      </c>
+      <c r="H2" t="n">
         <v>395143.1881030143</v>
-      </c>
-      <c r="H2" t="n">
-        <v>395143.1881030144</v>
       </c>
       <c r="I2" t="n">
         <v>395143.1881030141</v>
       </c>
       <c r="J2" t="n">
-        <v>395143.1881030141</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="K2" t="n">
-        <v>395143.1881030141</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="L2" t="n">
-        <v>395143.1881030141</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="M2" t="n">
         <v>395143.1881030142</v>
@@ -26352,10 +26352,10 @@
         <v>395143.1881030143</v>
       </c>
       <c r="O2" t="n">
-        <v>392192.6741188924</v>
+        <v>395143.1881030141</v>
       </c>
       <c r="P2" t="n">
-        <v>392192.6741188923</v>
+        <v>395143.1881030142</v>
       </c>
     </row>
     <row r="3">
@@ -26368,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>78577.04195825371</v>
+        <v>66587.76789501635</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998259</v>
       </c>
       <c r="E3" t="n">
-        <v>178552.6909404109</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3490.497673803512</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>62596.87743601672</v>
+        <v>53045.85463877266</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.30172662217</v>
       </c>
       <c r="M3" t="n">
-        <v>149026.5350866915</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>199828.8262465156</v>
       </c>
       <c r="C4" t="n">
-        <v>156636.6412526738</v>
+        <v>163226.8987932457</v>
       </c>
       <c r="D4" t="n">
         <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>67492.94055169866</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="F4" t="n">
-        <v>67492.94055169864</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="G4" t="n">
         <v>68000.69828933281</v>
@@ -26438,28 +26438,28 @@
         <v>68000.69828933281</v>
       </c>
       <c r="I4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="J4" t="n">
         <v>68000.69828933281</v>
       </c>
       <c r="K4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="L4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="M4" t="n">
+        <v>68000.69828933281</v>
+      </c>
+      <c r="N4" t="n">
         <v>68000.69828933282</v>
       </c>
-      <c r="N4" t="n">
-        <v>68000.69828933281</v>
-      </c>
       <c r="O4" t="n">
-        <v>67492.94055169866</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="P4" t="n">
-        <v>67492.94055169867</v>
+        <v>68000.69828933282</v>
       </c>
     </row>
     <row r="5">
@@ -26472,16 +26472,16 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>71956.21380800262</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>76943.94501596727</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>76943.94501596727</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76943.94501596727</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>76943.94501596727</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>665.5748743584845</v>
+        <v>665.5748743585209</v>
       </c>
       <c r="C6" t="n">
-        <v>92684.28214512115</v>
+        <v>100339.6094215417</v>
       </c>
       <c r="D6" t="n">
-        <v>171261.3241033748</v>
+        <v>159733.7285533923</v>
       </c>
       <c r="E6" t="n">
-        <v>69203.09761081546</v>
+        <v>67045.9176474565</v>
       </c>
       <c r="F6" t="n">
-        <v>247755.7885512265</v>
+        <v>249401.0268685062</v>
       </c>
       <c r="G6" t="n">
-        <v>245933.7535340854</v>
+        <v>249401.0268685062</v>
       </c>
       <c r="H6" t="n">
-        <v>249424.2512078891</v>
+        <v>249401.0268685063</v>
       </c>
       <c r="I6" t="n">
-        <v>249424.2512078888</v>
+        <v>249401.0268685062</v>
       </c>
       <c r="J6" t="n">
-        <v>138409.7858628986</v>
+        <v>138386.5615235161</v>
       </c>
       <c r="K6" t="n">
-        <v>186827.3737718721</v>
+        <v>196355.1722297336</v>
       </c>
       <c r="L6" t="n">
-        <v>249424.2512078888</v>
+        <v>240008.7251418841</v>
       </c>
       <c r="M6" t="n">
-        <v>100397.7161211974</v>
+        <v>97200.85593051862</v>
       </c>
       <c r="N6" t="n">
-        <v>249424.2512078889</v>
+        <v>249401.0268685063</v>
       </c>
       <c r="O6" t="n">
-        <v>247755.7885512265</v>
+        <v>249401.0268685062</v>
       </c>
       <c r="P6" t="n">
-        <v>247755.7885512263</v>
+        <v>249401.0268685062</v>
       </c>
     </row>
   </sheetData>
@@ -26792,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1265.52541144683</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1265.52541144683</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26828,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1265.52541144683</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1265.52541144683</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27014,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>243.2193490877526</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939283</v>
       </c>
       <c r="E4" t="n">
-        <v>598.0102048389731</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>12.73509193791529</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>243.2193490877526</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939283</v>
       </c>
       <c r="M4" t="n">
-        <v>598.0102048389731</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>243.2193490877526</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939283</v>
       </c>
       <c r="M4" t="n">
-        <v>598.0102048389731</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>12.73509193791529</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9.465190568306582</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
-        <v>7.254829457195569</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5.14113987318342</v>
-      </c>
       <c r="F2" t="n">
-        <v>2.013840566137503</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>63.2534899600285</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27596,13 +27596,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0.6882187278845322</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>33.56143344735591</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>367.2261030860413</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>329.8936720721051</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27833,7 +27833,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>207.4481055196029</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>253.8775775763891</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>268.6910868018712</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,13 +28016,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>44.07191583437682</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28335,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28505,7 +28505,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>3.959144123655279e-12</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28575,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28745,7 +28745,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>3.582082778545252e-12</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-4.942272934864269e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29000,7 +29000,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.922225424602705e-12</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -34707,19 +34707,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34780,25 +34780,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>424.2958575201043</v>
-      </c>
       <c r="Q3" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34868,16 +34868,16 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="O4" t="n">
-        <v>204.7592244691589</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>667.515206607857</v>
+        <v>72.80589558611206</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>145.5272350047205</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>30.91440664741845</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>446.7260637956006</v>
+        <v>299.7839758982059</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35178,16 +35178,16 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35254,7 +35254,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>112.1603739174597</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35269,13 +35269,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35412,16 +35412,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850285</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>92.98209605279317</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35488,16 +35488,16 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
-        <v>1.918706501889091</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35509,10 +35509,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35576,13 +35576,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>629.1324862640504</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35743,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35813,13 +35813,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>832.9621348837854</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35983,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908425</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36214,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>689.5283227345933</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36296,7 +36296,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165097</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821539</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36454,7 +36454,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>922.699389992646</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>661.3192390158824</v>
@@ -36694,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36767,13 +36767,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>508.6956131767483</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
         <v>170.862691669754</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>127.53932913075</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37782,19 +37782,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850285</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>1000.246538085737</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>164.4273484133671</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37876,13 +37876,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37946,13 +37946,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38019,19 +38019,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850285</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1083.062567335931</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38183,13 +38183,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
